--- a/report_template/aggregateReport.xlsx
+++ b/report_template/aggregateReport.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\EPA\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>測站名稱：麥寮環境監測中心</t>
-  </si>
   <si>
     <t>印表日期：20151021</t>
   </si>
@@ -82,6 +79,10 @@
   </si>
   <si>
     <t>測站每日監測彙總表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測站名稱：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,6 +292,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +344,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,7 +540,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C17"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -518,7 +553,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -530,12 +565,12 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,21 +578,21 @@
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,7 +600,7 @@
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,7 +677,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -669,13 +704,13 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
